--- a/mAuditoriaPV/formatos/CAJAS UNICAS ALLENDE.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS UNICAS ALLENDE.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>044774030115</t>
+    <t>041390001055</t>
   </si>
   <si>
-    <t>097339000030</t>
+    <t>041390000706</t>
   </si>
   <si>
-    <t>013602000101</t>
+    <t>051000197597</t>
+  </si>
+  <si>
+    <t>094331238706</t>
+  </si>
+  <si>
+    <t>037836050305</t>
   </si>
   <si>
     <t>037836050589</t>
-  </si>
-  <si>
-    <t>037836050305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,23 +77,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,190 +408,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="1">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
         <v>608875007089</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="1">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>7501008006450</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="1">
-        <v>7501125418174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="1">
-        <v>7501125419041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>7501005110389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>7501052424613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>7501006584028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="1">
-        <v>731082001004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="1">
-        <v>7501059297586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="1">
-        <v>738545010726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75">
-      <c r="A11" s="1">
-        <v>7501005110389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="3" t="s">
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7501003300676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7501006556636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7501006586688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7503014162069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75">
-      <c r="A13" s="1">
-        <v>7501008004661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75">
-      <c r="A14" s="1">
-        <v>758104006229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75">
-      <c r="A15" s="2">
-        <v>7509546075068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75">
-      <c r="A16" s="2">
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>7501045403915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7501041419071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>7501058619235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>7501059281950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>7501058626097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>884912273116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>7501761805208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>7509546074788</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="2">
-        <v>7509546074764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="2">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>7509546074795</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="1">
-        <v>7509546060897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="1">
-        <v>7509546650999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="1">
-        <v>7501022105207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="1">
-        <v>7501022105276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="4">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>7509546079769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>7509546659503</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="4">
-        <v>7506306215597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="4">
-        <v>7506306220218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
-      <c r="A28" s="4">
-        <v>7506306238398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75">
-      <c r="A29" s="4">
-        <v>7506306238336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75">
-      <c r="A30" s="4">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>7509546659497</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75">
-      <c r="A31" s="4">
-        <v>7502007271467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75">
-      <c r="A32" s="4">
-        <v>7509546075051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="4">
-        <v>7501035911208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75">
-      <c r="A34" s="4">
-        <v>7509546079769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75">
-      <c r="A35" s="4">
-        <v>7500435019811</v>
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7501056353100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7702006912938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7501056338596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>7500435148320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>7500435147583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>650240036705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7501199424064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7501199423777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7500435110204</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -601,7 +622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mAuditoriaPV/formatos/CAJAS UNICAS ALLENDE.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS UNICAS ALLENDE.xlsx
@@ -1,52 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="9345"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Importador" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>041390001055</t>
+    <t>ClaveArticulo</t>
   </si>
   <si>
-    <t>041390000706</t>
+    <t>Cantidad</t>
   </si>
   <si>
-    <t>051000197597</t>
+    <t>067238891190</t>
   </si>
   <si>
-    <t>094331238706</t>
-  </si>
-  <si>
-    <t>037836050305</t>
-  </si>
-  <si>
-    <t>037836050589</t>
+    <t>027000500330</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -54,11 +45,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,25 +79,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -121,8 +153,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B38" totalsRowShown="0">
+  <autoFilter ref="A1:B38"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ClaveArticulo" dataDxfId="1"/>
+    <tableColumn id="2" name="Cantidad" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,7 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,222 +449,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>608875007089</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>7501008006450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>7501005110389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>7501052424613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>7501006584028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7501003300676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7501006556636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7501006586688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7503014162069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>7501017003013</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>7501003339171</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>7501071303784</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>7501003393067</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>7501003390288</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7501003184030</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>919313000600</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>919313000624</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7501003310187</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7501011312623</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>823703300945</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7501140700308</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>7501071301629</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>608875000363</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>7506192506953</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>7506192507417</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>7501003339454</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>7506192506786</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>7501017006458</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>7501279710131</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>7501014301884</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>7500478004713</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>7501026006616</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7501026006722</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7501026006852</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7501026001123</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7506306210271</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>7891150044630</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>7501045403915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>7501041419071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>7501058619235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>7501059281950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>7501058626097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>884912273116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>7501761805208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>7509546074788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>7501056370947</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7501026006814</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>7509546074795</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>7509546079769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>7509546659503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>7509546659497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>7501056353100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>7702006912938</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>7501056338596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>7500435148320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>7500435147583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>650240036705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>7501199424064</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7501199423777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7509546074764</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7500435110204</v>
+        <v>7500435124553</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>7506306222977</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>7501026008443</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>